--- a/frame-web/src/main/resources/static/files/course-demo.xlsx
+++ b/frame-web/src/main/resources/static/files/course-demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
     <t>第一学期</t>
   </si>
   <si>
+    <t>1/15</t>
+  </si>
+  <si>
     <t>学生2</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>第二学期</t>
   </si>
   <si>
+    <t>2/15</t>
+  </si>
+  <si>
     <t>优秀</t>
   </si>
   <si>
@@ -82,13 +88,22 @@
     <t>2017-2018</t>
   </si>
   <si>
+    <t>3/15</t>
+  </si>
+  <si>
     <t>及格</t>
   </si>
   <si>
     <t>学生4</t>
   </si>
   <si>
+    <t>4/15</t>
+  </si>
+  <si>
     <t>学生5</t>
+  </si>
+  <si>
+    <t>5/15</t>
   </si>
 </sst>
 </file>
@@ -132,53 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,39 +161,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,16 +202,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +211,66 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +291,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,127 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +488,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -488,11 +512,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,182 +576,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,7 +1061,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1106,7 +1121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1131,8 +1146,8 @@
       <c r="H2" s="1">
         <v>3.4</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1">
         <v>45</v>
@@ -1143,11 +1158,8 @@
       <c r="L2" s="1">
         <v>77</v>
       </c>
-      <c r="M2" s="1">
-        <v>86</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1155,13 +1167,13 @@
         <v>3140209089</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3">
         <v>44</v>
@@ -1172,20 +1184,17 @@
       <c r="H3" s="1">
         <v>4.4</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>67</v>
       </c>
       <c r="L3" s="1">
         <v>66</v>
-      </c>
-      <c r="M3" s="1">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1196,10 +1205,10 @@
         <v>3140209090</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1213,15 +1222,13 @@
       <c r="H4" s="1">
         <v>4.5</v>
       </c>
-      <c r="I4" s="1">
-        <v>3</v>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1">
-        <v>54</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>88</v>
       </c>
@@ -1237,13 +1244,13 @@
         <v>3140209091</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <v>44</v>
@@ -1254,8 +1261,8 @@
       <c r="H5" s="1">
         <v>4.6</v>
       </c>
-      <c r="I5" s="1">
-        <v>4</v>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="1">
         <v>55</v>
@@ -1263,9 +1270,7 @@
       <c r="K5" s="1">
         <v>56</v>
       </c>
-      <c r="L5" s="1">
-        <v>66</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>99</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>3140209092</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -1295,20 +1300,18 @@
       <c r="H6" s="1">
         <v>4.9</v>
       </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>77</v>
-      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1">
         <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
